--- a/RD_test.xlsx
+++ b/RD_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IrisReitsmaRiskQuest\Documents\GitHub\dasbhoard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C2C573-F460-4757-B9A5-90133596487B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF468A8-50B9-450F-B458-F833317D3F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15180" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{3D4E5762-CCCC-4F58-8FC2-83722782063A}"/>
+    <workbookView xWindow="28680" yWindow="-9105" windowWidth="29040" windowHeight="15840" xr2:uid="{3D4E5762-CCCC-4F58-8FC2-83722782063A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="184">
   <si>
     <t>1.1 Experience Management Team with innovative / circular businesses</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Fixed periodic fee</t>
   </si>
   <si>
-    <t xml:space="preserve">Hybrid: partly fixed, partly performance based </t>
-  </si>
-  <si>
     <t>100% Performance contract</t>
   </si>
   <si>
@@ -305,9 +302,6 @@
     <t>Company is in some aspects regarded as sustainable in current policies, but not ready for future policies</t>
   </si>
   <si>
-    <t xml:space="preserve">Company is regarded as sustainable in current policies and a strong belief that company is ready for future policies </t>
-  </si>
-  <si>
     <t>Company is regarded as sustainable frontrunner in current and future policies</t>
   </si>
   <si>
@@ -390,6 +384,210 @@
   </si>
   <si>
     <t>Overwrites</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Management Team has in total &lt;1 years as a board member/leader/management team of innovative, circular and/or PaaS businesses</t>
+  </si>
+  <si>
+    <t>Management Team has in total 1-5 years of experience as a board member/leader/management team of innovative, circular and/or PaaS businesses</t>
+  </si>
+  <si>
+    <t>Management Team has in total 5-20 years of experience as a board member/leader/management team of innovative, circular and/or PaaS businesses</t>
+  </si>
+  <si>
+    <t>Management Team has in total &gt;20 years of experience as a board member/leader/management team of innovative, circular and/or PaaS businesses</t>
+  </si>
+  <si>
+    <t>No diversity in Management Team on e.g. Ethnical background, Gender, Type of working experience (e.g. start-up, scale-up, corporate, institution) and Personality types (green/red/yellow/blue)</t>
+  </si>
+  <si>
+    <t>Little diversity in Management Team on e.g. Ethnical background, Gender, Type of working experience (e.g. start-up, scale-up, corporate, institution) and Personality types (green/red/yellow/blue)</t>
+  </si>
+  <si>
+    <t>Very diverse Management Team on certain (but not all) aspects of diversity on e.g. Ethnical background, Gender, Type of working experience (e.g. start-up, scale-up, corporate, institution) and Personality types (green/red/yellow/blue)</t>
+  </si>
+  <si>
+    <t>Very diverse Management Team on e.g. Ethnical background, Gender, Type of working experience (e.g. start-up, scale-up, corporate, institution) and Personality types (green/red/yellow/blue)</t>
+  </si>
+  <si>
+    <t>No incentives for efficient use of product (e.g. rental contract wit fixed fee)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some incentives for efficient use of product. </t>
+  </si>
+  <si>
+    <t>Pay-per-use/sharing model: efficient use of product by users. Less products needed overall. (e.g. wash-as-a-service)</t>
+  </si>
+  <si>
+    <t>E.g. non-capital intensive product, which can be used by only 1 user (e.g. computer mouse)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E.g. capital intensive product, which can be used by only 1 user (e.g. MRI scanner, headphone) OR non-capital intensive product, which can be used by multiple users (e.g. washing machine) </t>
+  </si>
+  <si>
+    <t>E.g. capital intensive product, which can be used by multiple users, functionality is what matters to the customer</t>
+  </si>
+  <si>
+    <t>Product material Nickel has extraction peak year at 2028</t>
+  </si>
+  <si>
+    <t>Product material Titanium has extraction peak year at 2038</t>
+  </si>
+  <si>
+    <t>Product material Molybdenum has extraction peak year at 2045</t>
+  </si>
+  <si>
+    <t>Product doesn't contain critical raw materials or Iron with extraction peak year at 2052</t>
+  </si>
+  <si>
+    <t>No control over assets, user or leasing company owner</t>
+  </si>
+  <si>
+    <t>Sales model with buy-back guarantee on products from either B2C customers or leasing company</t>
+  </si>
+  <si>
+    <t>Company is owner</t>
+  </si>
+  <si>
+    <t>Little or no integration or collaboration with suppliers, other than purchasing products</t>
+  </si>
+  <si>
+    <t>Cooperation with suppliers, e.g. align business objectives, announce strategic partnership</t>
+  </si>
+  <si>
+    <t>Strong cooperation with suppliers, e.g. one or more projects in which supplier and business invest together or share a common name</t>
+  </si>
+  <si>
+    <t>Product and parts cannot be upgraded</t>
+  </si>
+  <si>
+    <t>Product is very difficult to change or upgrade</t>
+  </si>
+  <si>
+    <t>Some parts of the product can be changed or adapted to changing market standards</t>
+  </si>
+  <si>
+    <t>A modular design makes the product easier to upgrade to adapt to changing market standards</t>
+  </si>
+  <si>
+    <t>Product contains 25-50% non-virgin / bio-based materials</t>
+  </si>
+  <si>
+    <t>Product contains 50-75% non-virgin / bio-based materials</t>
+  </si>
+  <si>
+    <t>Product contains more than &gt;75% non-virgin / bio-based materials</t>
+  </si>
+  <si>
+    <t>Lifetime of product is 50% (or more) shorter than similar products (e.g. lifetime vs guarantee period)</t>
+  </si>
+  <si>
+    <t>Lifetime of product is 25% shorter than similar products average lifetime of similar products (e.g. lifetime vs guarantee period)</t>
+  </si>
+  <si>
+    <t>Lifetime of product is equal to similar products (e.g. lifetime vs guarantee period)</t>
+  </si>
+  <si>
+    <t>Lifetime of product is longer than similar products (e.g. lifetime vs guarantee period)</t>
+  </si>
+  <si>
+    <t>Cannot be repaired</t>
+  </si>
+  <si>
+    <t>Not so easy to repair, expert is needed to repair</t>
+  </si>
+  <si>
+    <t>Easy to repair, but expert is needed to repair</t>
+  </si>
+  <si>
+    <t>Repair manual is transparantly offered, do-it-yourself repair</t>
+  </si>
+  <si>
+    <t>Average length of contracts in portfolio is less than 3 months</t>
+  </si>
+  <si>
+    <t>Average length of contracts in portfolio is 3 months to 2.5 years</t>
+  </si>
+  <si>
+    <t>Average length of contracts in portfolio is 2.5 to 10 years</t>
+  </si>
+  <si>
+    <t>Average length of contracts in portfolio is &gt;10 years</t>
+  </si>
+  <si>
+    <t>Product contains &lt;25% non-virgin / bio-based materials</t>
+  </si>
+  <si>
+    <t>Customer is able to cancel its service on a less than qurterly basis (e.g. monthly, or instant)</t>
+  </si>
+  <si>
+    <t>Customer is able to cancel its service on a quarterly basis</t>
+  </si>
+  <si>
+    <t>Customer is able to cancel its service on a half yearly basis</t>
+  </si>
+  <si>
+    <t>Customer is able to cancel its service on a yearly basis</t>
+  </si>
+  <si>
+    <t>At least one of these incentives: good payment behavior, fine for cancellation, discount for good care of product by customer)</t>
+  </si>
+  <si>
+    <t>Many inventives for contract renewal, e.g. good payment behavior, fine for cancellation, discount for renewal or good care of product by customer</t>
+  </si>
+  <si>
+    <t>Low upfront investments, low tech-products</t>
+  </si>
+  <si>
+    <t>Medium upfront investments needed, medium-tech products</t>
+  </si>
+  <si>
+    <t>High upfront investments needed (e.g. industry), High-tech products</t>
+  </si>
+  <si>
+    <t>No (real) examples as of yet. But, for example, an innovation that requires no material / appliance to wash clothes, e.g. clothing that needs no washing. Would be new circular product (given the clothing material itself is circular, without a linear alternative).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E.g. circular artificial flowers, not many circular competitors, but not many linear artificial flower suppliers either </t>
+  </si>
+  <si>
+    <t>E.g. servitized washing machines, some circular competitors, many lineair washing machine suppliers</t>
+  </si>
+  <si>
+    <t>E.g. Recycling industry is in the Netherlands mature market</t>
+  </si>
+  <si>
+    <t>Small player on circular market, lots of competition</t>
+  </si>
+  <si>
+    <t>Sizeable player on circular market, lots of competition</t>
+  </si>
+  <si>
+    <t>Big player on circular market, some competition</t>
+  </si>
+  <si>
+    <t>Big player on circular market, little competition</t>
+  </si>
+  <si>
+    <t>Company activities are not on the list of EU Green Taxonomy, and future policies (e.g. EU ecodesign guidelines) will impact the company heavily</t>
+  </si>
+  <si>
+    <t>Company activities are or included EU Green Taxonomy or complies to CSRD, but future policies (e.g. EU ecodesign guidelines) will impact the company heavily if company does not transform its business model</t>
+  </si>
+  <si>
+    <t>Company activities are included in EU Green Taxonomy and complies to CSRD, and there is a strong belief that future policies (e.g. EU ecodesign guidelines) will not impact the company</t>
+  </si>
+  <si>
+    <t>Company activities are included in EU Green Taxonomy and fully complies to CSRD, but does much more in the field of sustainability (e.g. on social factors). Furthermore, future policies (e.g. EU ecodesign guidelines) will certainly not impact the company</t>
+  </si>
+  <si>
+    <t>Hybrid (partly fixed, partly performance based)</t>
+  </si>
+  <si>
+    <t>Company is sustainable in current policies and a strong belief that company is ready for future policies</t>
   </si>
 </sst>
 </file>
@@ -478,10 +676,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -781,10 +975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC94184-36DC-4334-8EC3-79CE319DCC44}">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -793,15 +987,16 @@
     <col min="2" max="2" width="14.88671875" style="2" customWidth="1"/>
     <col min="3" max="3" width="27.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.44140625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="2"/>
+    <col min="5" max="5" width="59.5546875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>11</v>
@@ -809,13 +1004,16 @@
       <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E1" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
@@ -823,60 +1021,84 @@
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E2" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E3" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E4" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E5" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E9" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
@@ -884,404 +1106,578 @@
       <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="24" x14ac:dyDescent="0.3">
+      <c r="E10" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="24" x14ac:dyDescent="0.3">
+      <c r="E11" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E12" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="24" x14ac:dyDescent="0.3">
+      <c r="E13" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="D14" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="D15" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D15" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="E15" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="D16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="36" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="36" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="36" x14ac:dyDescent="0.3">
-      <c r="B17" s="2" t="s">
+      <c r="D18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="36" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="36" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
+      <c r="D19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="D21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="36" x14ac:dyDescent="0.3">
+      <c r="D22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="D24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="D25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="36" x14ac:dyDescent="0.3">
-      <c r="B19" s="2" t="s">
+      <c r="C26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D21" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="36" x14ac:dyDescent="0.3">
-      <c r="D22" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D24" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D25" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="D27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="C30" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B27" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B28" s="2" t="s">
+      <c r="D30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="D31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="D32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="D33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="C34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="D35" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D36" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="D37" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C38" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D39" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D40" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D41" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="B29" s="2" t="s">
+      <c r="C42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="C30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="D31" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="D32" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="D33" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C34" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D35" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D36" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D37" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C38" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D39" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D40" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D41" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="2" t="s">
+      <c r="D43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B44" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="2" t="s">
+      <c r="D44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B44" s="2" t="s">
+      <c r="D45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C50" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="D51" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="D52" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="2" t="s">
+      <c r="C53" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B54" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C46" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D47" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D48" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D49" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C50" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="D51" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="D52" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B53" s="2" t="s">
+      <c r="D54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B55" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B54" s="2" t="s">
+      <c r="D55" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="48" x14ac:dyDescent="0.3">
+      <c r="B56" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B55" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D55" s="1" t="s">
+      <c r="C56" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="B56" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C56" s="2" t="s">
+      <c r="D56" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="E56" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="D57" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="D57" s="1" t="s">
+      <c r="E57" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="D58" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="D58" s="1" t="s">
+      <c r="E58" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="D59" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="D59" s="1" t="s">
+      <c r="E59" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="C60" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="C60" s="2" t="s">
+      <c r="D60" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="E60" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="D61" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="D61" s="4" t="s">
+      <c r="E61" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="D62" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="D62" s="4" t="s">
+      <c r="E62" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="D63" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="D63" s="4" t="s">
+      <c r="E63" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="36" x14ac:dyDescent="0.3">
+      <c r="C64" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="36" x14ac:dyDescent="0.3">
-      <c r="C64" s="2" t="s">
+      <c r="D64" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="E64" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="65" spans="4:5" ht="48" x14ac:dyDescent="0.3">
+      <c r="D65" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="65" spans="4:4" ht="48" x14ac:dyDescent="0.3">
-      <c r="D65" s="1" t="s">
+      <c r="E65" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="66" spans="4:5" ht="48" x14ac:dyDescent="0.3">
+      <c r="D66" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="67" spans="4:5" ht="48" x14ac:dyDescent="0.3">
+      <c r="D67" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="66" spans="4:4" ht="48" x14ac:dyDescent="0.3">
-      <c r="D66" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="67" spans="4:4" ht="36" x14ac:dyDescent="0.3">
-      <c r="D67" s="1" t="s">
-        <v>90</v>
+      <c r="E67" s="4" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -1290,15 +1686,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100012622E045E3264E917E2E70247D59DA" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="790fdbb8542707c675f15d468791c78c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="95ec377a-6541-4b84-af39-d48b8b06c521" xmlns:ns4="5f881008-17d2-4d16-90e0-937d4120d730" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4d3917910e9e8daf493e8495c95b1d7d" ns3:_="" ns4:_="">
     <xsd:import namespace="95ec377a-6541-4b84-af39-d48b8b06c521"/>
@@ -1481,7 +1868,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_activity xmlns="95ec377a-6541-4b84-af39-d48b8b06c521" xsi:nil="true"/>
@@ -1489,15 +1876,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D203786-B4DC-419B-960A-C4C5F2896F74}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B582907-3412-4C04-9444-C284B34F4904}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1516,7 +1904,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{937E51E9-E945-4071-9915-DFEA9D97EED8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -1531,4 +1919,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D203786-B4DC-419B-960A-C4C5F2896F74}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/RD_test.xlsx
+++ b/RD_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IrisReitsmaRiskQuest\Documents\GitHub\dasbhoard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF468A8-50B9-450F-B458-F833317D3F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA4A93C-ABA6-4E20-8B3E-36787D7F8976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-9105" windowWidth="29040" windowHeight="15840" xr2:uid="{3D4E5762-CCCC-4F58-8FC2-83722782063A}"/>
+    <workbookView xWindow="13245" yWindow="-16455" windowWidth="29040" windowHeight="15840" xr2:uid="{3D4E5762-CCCC-4F58-8FC2-83722782063A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -584,10 +584,10 @@
     <t>Company activities are included in EU Green Taxonomy and fully complies to CSRD, but does much more in the field of sustainability (e.g. on social factors). Furthermore, future policies (e.g. EU ecodesign guidelines) will certainly not impact the company</t>
   </si>
   <si>
-    <t>Hybrid (partly fixed, partly performance based)</t>
-  </si>
-  <si>
-    <t>Company is sustainable in current policies and a strong belief that company is ready for future policies</t>
+    <t xml:space="preserve">Company is regarded as sustainable in current policies and a strong belief that company is ready for future policies </t>
+  </si>
+  <si>
+    <t>Hybrid: partly fixed, partly performance based</t>
   </si>
 </sst>
 </file>
@@ -977,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC94184-36DC-4334-8EC3-79CE319DCC44}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="14" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="D14" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>126</v>
@@ -1664,9 +1664,9 @@
         <v>179</v>
       </c>
     </row>
-    <row r="66" spans="4:5" ht="48" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:5" ht="36" x14ac:dyDescent="0.3">
       <c r="D66" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>180</v>
@@ -1869,20 +1869,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="95ec377a-6541-4b84-af39-d48b8b06c521" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="95ec377a-6541-4b84-af39-d48b8b06c521" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1905,6 +1905,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D203786-B4DC-419B-960A-C4C5F2896F74}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{937E51E9-E945-4071-9915-DFEA9D97EED8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -1919,12 +1927,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D203786-B4DC-419B-960A-C4C5F2896F74}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>